--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>250671.23</v>
+        <v>583496.27</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35810.18</v>
+        <v>58349.63</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15212.9</v>
+        <v>15191.53</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49597.07</v>
+        <v>50185.83</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46828.4</v>
+        <v>46697.53</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62634.96</v>
+        <v>62690.1</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>692.3099999999999</v>
+        <v>752.01</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1712.67</v>
+        <v>1911.71</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73992.92</v>
+        <v>74191.17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>23070.96</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7858.89</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>300946.54</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,128 +436,169 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583496.27</v>
+        <v>15172.42</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15443.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58349.63</v>
+        <v>49706</v>
+      </c>
+      <c r="C3" t="n">
+        <v>49652.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15191.53</v>
+        <v>21196.09</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23185.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50185.83</v>
+        <v>7851.56</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7838.42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46697.53</v>
+        <v>301821.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>301539.77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62690.1</v>
+        <v>47024.7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>46704.71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>752.01</v>
+        <v>62534.94</v>
+      </c>
+      <c r="C8" t="n">
+        <v>62503.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1911.71</v>
+        <v>74232.56</v>
+      </c>
+      <c r="C9" t="n">
+        <v>74050.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74191.17</v>
+        <v>684.04</v>
+      </c>
+      <c r="C10" t="n">
+        <v>774.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23070.96</v>
+        <v>1828.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1368.26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7858.89</v>
+        <v>58205.18</v>
+      </c>
+      <c r="C12" t="n">
+        <v>58306.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>300946.54</v>
+        <v>582051.8100000001</v>
+      </c>
+      <c r="C13" t="n">
+        <v>583060.33</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,157 +443,121 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15172.42</v>
-      </c>
-      <c r="C2" t="n">
-        <v>15443.36</v>
+        <v>583060.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49706</v>
-      </c>
-      <c r="C3" t="n">
-        <v>49652.25</v>
+        <v>58306.03</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21196.09</v>
-      </c>
-      <c r="C4" t="n">
-        <v>23185.11</v>
+        <v>15443.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7851.56</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7838.42</v>
+        <v>49652.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>301821.4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>301539.77</v>
+        <v>23185.11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47024.7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>46704.71</v>
+        <v>7838.42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62534.94</v>
-      </c>
-      <c r="C8" t="n">
-        <v>62503.09</v>
+        <v>301539.77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>74232.56</v>
-      </c>
-      <c r="C9" t="n">
-        <v>74050.52</v>
+        <v>46704.71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>684.04</v>
-      </c>
-      <c r="C10" t="n">
-        <v>774.84</v>
+        <v>62503.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1828.1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1368.26</v>
+        <v>74050.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>58205.18</v>
-      </c>
-      <c r="C12" t="n">
-        <v>58306.03</v>
+        <v>774.84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582051.8100000001</v>
-      </c>
-      <c r="C13" t="n">
-        <v>583060.33</v>
+        <v>1368.26</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,125 +439,164 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583060.33</v>
+        <v>15443.36</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15477.72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58306.03</v>
+        <v>49652.25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>50471.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15443.36</v>
+        <v>23185.11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21444.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49652.25</v>
+        <v>7838.42</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7846.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23185.11</v>
+        <v>301539.77</v>
+      </c>
+      <c r="C6" t="n">
+        <v>301671.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7838.42</v>
-      </c>
+        <v>46704.71</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>301539.77</v>
+        <v>62503.09</v>
+      </c>
+      <c r="C8" t="n">
+        <v>62757.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>46704.71</v>
+        <v>74050.52</v>
+      </c>
+      <c r="C9" t="n">
+        <v>74056.39999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62503.09</v>
+        <v>774.84</v>
+      </c>
+      <c r="C10" t="n">
+        <v>866.99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74050.52</v>
+        <v>1368.26</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1545.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>774.84</v>
+        <v>58306.03</v>
+      </c>
+      <c r="C12" t="n">
+        <v>59570.94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1368.26</v>
+        <v>583060.33</v>
+      </c>
+      <c r="C13" t="n">
+        <v>536138.4300000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>15477.72</v>
       </c>
+      <c r="D2" t="n">
+        <v>15527.08</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>50471.92</v>
       </c>
+      <c r="D3" t="n">
+        <v>49848.45</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>21444.91</v>
       </c>
+      <c r="D4" t="n">
+        <v>23451.27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>7846.92</v>
       </c>
+      <c r="D5" t="n">
+        <v>7837.54</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>301671.15</v>
       </c>
+      <c r="D6" t="n">
+        <v>302027.91</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -520,6 +540,9 @@
         <v>46704.71</v>
       </c>
       <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>46777.07</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -533,6 +556,9 @@
       <c r="C8" t="n">
         <v>62757.32</v>
       </c>
+      <c r="D8" t="n">
+        <v>62198.03</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -546,6 +572,9 @@
       <c r="C9" t="n">
         <v>74056.39999999999</v>
       </c>
+      <c r="D9" t="n">
+        <v>74255.87</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -559,6 +588,9 @@
       <c r="C10" t="n">
         <v>866.99</v>
       </c>
+      <c r="D10" t="n">
+        <v>940.34</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -572,6 +604,9 @@
       <c r="C11" t="n">
         <v>1545.1</v>
       </c>
+      <c r="D11" t="n">
+        <v>1368.61</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -585,6 +620,9 @@
       <c r="C12" t="n">
         <v>59570.94</v>
       </c>
+      <c r="D12" t="n">
+        <v>58423.22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -597,6 +635,9 @@
       </c>
       <c r="C13" t="n">
         <v>536138.4300000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>584232.17</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>15527.08</v>
       </c>
+      <c r="E2" t="n">
+        <v>15170.6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>49848.45</v>
       </c>
+      <c r="E3" t="n">
+        <v>50198.27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>23451.27</v>
       </c>
+      <c r="E4" t="n">
+        <v>23052.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>7837.54</v>
       </c>
+      <c r="E5" t="n">
+        <v>7847.48</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -528,6 +545,9 @@
       </c>
       <c r="D6" t="n">
         <v>302027.91</v>
+      </c>
+      <c r="E6" t="n">
+        <v>301115.01</v>
       </c>
     </row>
     <row r="7">
@@ -543,6 +563,9 @@
       <c r="D7" t="n">
         <v>46777.07</v>
       </c>
+      <c r="E7" t="n">
+        <v>48821.24</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -559,6 +582,9 @@
       <c r="D8" t="n">
         <v>62198.03</v>
       </c>
+      <c r="E8" t="n">
+        <v>62456.83</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -575,6 +601,9 @@
       <c r="D9" t="n">
         <v>74255.87</v>
       </c>
+      <c r="E9" t="n">
+        <v>74246.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -591,6 +620,9 @@
       <c r="D10" t="n">
         <v>940.34</v>
       </c>
+      <c r="E10" t="n">
+        <v>904.4299999999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -607,6 +639,9 @@
       <c r="D11" t="n">
         <v>1368.61</v>
       </c>
+      <c r="E11" t="n">
+        <v>1364.04</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -623,6 +658,9 @@
       <c r="D12" t="n">
         <v>58423.22</v>
       </c>
+      <c r="E12" t="n">
+        <v>58517.63</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -638,6 +676,9 @@
       </c>
       <c r="D13" t="n">
         <v>584232.17</v>
+      </c>
+      <c r="E13" t="n">
+        <v>585176.3</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>15170.6</v>
       </c>
+      <c r="F2" t="n">
+        <v>15500.26</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>50198.27</v>
       </c>
+      <c r="F3" t="n">
+        <v>50488.91</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>23052.2</v>
       </c>
+      <c r="F4" t="n">
+        <v>22040.54</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>7847.48</v>
       </c>
+      <c r="F5" t="n">
+        <v>7844.58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -548,6 +565,9 @@
       </c>
       <c r="E6" t="n">
         <v>301115.01</v>
+      </c>
+      <c r="F6" t="n">
+        <v>293929.9</v>
       </c>
     </row>
     <row r="7">
@@ -566,6 +586,9 @@
       <c r="E7" t="n">
         <v>48821.24</v>
       </c>
+      <c r="F7" t="n">
+        <v>49357.93</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -585,6 +608,9 @@
       <c r="E8" t="n">
         <v>62456.83</v>
       </c>
+      <c r="F8" t="n">
+        <v>62205.9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -604,6 +630,9 @@
       <c r="E9" t="n">
         <v>74246.2</v>
       </c>
+      <c r="F9" t="n">
+        <v>74204.92999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -623,6 +652,9 @@
       <c r="E10" t="n">
         <v>904.4299999999999</v>
       </c>
+      <c r="F10" t="n">
+        <v>818.02</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -642,6 +674,9 @@
       <c r="E11" t="n">
         <v>1364.04</v>
       </c>
+      <c r="F11" t="n">
+        <v>1934.65</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -661,6 +696,9 @@
       <c r="E12" t="n">
         <v>58517.63</v>
       </c>
+      <c r="F12" t="n">
+        <v>57832.56</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -679,6 +717,9 @@
       </c>
       <c r="E13" t="n">
         <v>585176.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>578325.62</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>15500.26</v>
       </c>
+      <c r="G2" t="n">
+        <v>15329.83</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>50488.91</v>
       </c>
+      <c r="G3" t="n">
+        <v>49662.24</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>22040.54</v>
       </c>
+      <c r="G4" t="n">
+        <v>22944.07</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>7844.58</v>
       </c>
+      <c r="G5" t="n">
+        <v>7829.98</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -568,6 +585,9 @@
       </c>
       <c r="F6" t="n">
         <v>293929.9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>293656.81</v>
       </c>
     </row>
     <row r="7">
@@ -589,6 +609,9 @@
       <c r="F7" t="n">
         <v>49357.93</v>
       </c>
+      <c r="G7" t="n">
+        <v>49136.44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -611,6 +634,9 @@
       <c r="F8" t="n">
         <v>62205.9</v>
       </c>
+      <c r="G8" t="n">
+        <v>62891.05</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -633,6 +659,9 @@
       <c r="F9" t="n">
         <v>74204.92999999999</v>
       </c>
+      <c r="G9" t="n">
+        <v>74046.14999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -655,6 +684,9 @@
       <c r="F10" t="n">
         <v>818.02</v>
       </c>
+      <c r="G10" t="n">
+        <v>835.01</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -677,6 +709,9 @@
       <c r="F11" t="n">
         <v>1934.65</v>
       </c>
+      <c r="G11" t="n">
+        <v>1365.39</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -699,6 +734,9 @@
       <c r="F12" t="n">
         <v>57832.56</v>
       </c>
+      <c r="G12" t="n">
+        <v>57769.7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -720,6 +758,9 @@
       </c>
       <c r="F13" t="n">
         <v>578325.62</v>
+      </c>
+      <c r="G13" t="n">
+        <v>577696.97</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>15329.83</v>
       </c>
+      <c r="H2" t="n">
+        <v>15551.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>49662.24</v>
       </c>
+      <c r="H3" t="n">
+        <v>49593.48</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>22944.07</v>
       </c>
+      <c r="H4" t="n">
+        <v>20696.29</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>7829.98</v>
       </c>
+      <c r="H5" t="n">
+        <v>7839.12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -588,6 +605,9 @@
       </c>
       <c r="G6" t="n">
         <v>293656.81</v>
+      </c>
+      <c r="H6" t="n">
+        <v>293958.97</v>
       </c>
     </row>
     <row r="7">
@@ -612,6 +632,9 @@
       <c r="G7" t="n">
         <v>49136.44</v>
       </c>
+      <c r="H7" t="n">
+        <v>49459.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -637,6 +660,9 @@
       <c r="G8" t="n">
         <v>62891.05</v>
       </c>
+      <c r="H8" t="n">
+        <v>62010.47</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -662,6 +688,9 @@
       <c r="G9" t="n">
         <v>74046.14999999999</v>
       </c>
+      <c r="H9" t="n">
+        <v>74095.69</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -687,6 +716,9 @@
       <c r="G10" t="n">
         <v>835.01</v>
       </c>
+      <c r="H10" t="n">
+        <v>886.99</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -712,6 +744,9 @@
       <c r="G11" t="n">
         <v>1365.39</v>
       </c>
+      <c r="H11" t="n">
+        <v>1452.53</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -737,6 +772,9 @@
       <c r="G12" t="n">
         <v>57769.7</v>
       </c>
+      <c r="H12" t="n">
+        <v>57554.46</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -761,6 +799,9 @@
       </c>
       <c r="G13" t="n">
         <v>577696.97</v>
+      </c>
+      <c r="H13" t="n">
+        <v>575544.61</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>15551.95</v>
       </c>
+      <c r="I2" t="n">
+        <v>15545.96</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>49593.48</v>
       </c>
+      <c r="I3" t="n">
+        <v>50513.9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>20696.29</v>
       </c>
+      <c r="I4" t="n">
+        <v>21010.29</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>7839.12</v>
       </c>
+      <c r="I5" t="n">
+        <v>7849.63</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -608,6 +625,9 @@
       </c>
       <c r="H6" t="n">
         <v>293958.97</v>
+      </c>
+      <c r="I6" t="n">
+        <v>293818.75</v>
       </c>
     </row>
     <row r="7">
@@ -635,6 +655,9 @@
       <c r="H7" t="n">
         <v>49459.12</v>
       </c>
+      <c r="I7" t="n">
+        <v>49183.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -663,6 +686,9 @@
       <c r="H8" t="n">
         <v>62010.47</v>
       </c>
+      <c r="I8" t="n">
+        <v>62208.23</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -691,6 +717,9 @@
       <c r="H9" t="n">
         <v>74095.69</v>
       </c>
+      <c r="I9" t="n">
+        <v>74120.23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -719,6 +748,9 @@
       <c r="H10" t="n">
         <v>886.99</v>
       </c>
+      <c r="I10" t="n">
+        <v>799.8200000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -747,6 +779,9 @@
       <c r="H11" t="n">
         <v>1452.53</v>
       </c>
+      <c r="I11" t="n">
+        <v>1448.11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -775,6 +810,9 @@
       <c r="H12" t="n">
         <v>57554.46</v>
       </c>
+      <c r="I12" t="n">
+        <v>57649.8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -802,6 +840,9 @@
       </c>
       <c r="H13" t="n">
         <v>575544.61</v>
+      </c>
+      <c r="I13" t="n">
+        <v>576498.04</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>15545.96</v>
       </c>
+      <c r="J2" t="n">
+        <v>15179.65</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>50513.9</v>
       </c>
+      <c r="J3" t="n">
+        <v>49624.65</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>21010.29</v>
       </c>
+      <c r="J4" t="n">
+        <v>21176.06</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>7849.63</v>
       </c>
+      <c r="J5" t="n">
+        <v>7826.25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -628,6 +645,9 @@
       </c>
       <c r="I6" t="n">
         <v>293818.75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>293190.14</v>
       </c>
     </row>
     <row r="7">
@@ -658,6 +678,9 @@
       <c r="I7" t="n">
         <v>49183.12</v>
       </c>
+      <c r="J7" t="n">
+        <v>49402.05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -689,6 +712,9 @@
       <c r="I8" t="n">
         <v>62208.23</v>
       </c>
+      <c r="J8" t="n">
+        <v>62680.31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -720,6 +746,9 @@
       <c r="I9" t="n">
         <v>74120.23</v>
       </c>
+      <c r="J9" t="n">
+        <v>73984.64</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -751,6 +780,9 @@
       <c r="I10" t="n">
         <v>799.8200000000001</v>
       </c>
+      <c r="J10" t="n">
+        <v>774.17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -782,6 +814,9 @@
       <c r="I11" t="n">
         <v>1448.11</v>
       </c>
+      <c r="J11" t="n">
+        <v>1437.06</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -813,6 +848,9 @@
       <c r="I12" t="n">
         <v>57649.8</v>
       </c>
+      <c r="J12" t="n">
+        <v>57527.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -843,6 +881,9 @@
       </c>
       <c r="I13" t="n">
         <v>576498.04</v>
+      </c>
+      <c r="J13" t="n">
+        <v>575274.98</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>15179.65</v>
       </c>
+      <c r="K2" t="n">
+        <v>15162.33</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>49624.65</v>
       </c>
+      <c r="K3" t="n">
+        <v>50525.41</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>21176.06</v>
       </c>
+      <c r="K4" t="n">
+        <v>21690.28</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>7826.25</v>
       </c>
+      <c r="K5" t="n">
+        <v>7843.13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -648,6 +665,9 @@
       </c>
       <c r="J6" t="n">
         <v>293190.14</v>
+      </c>
+      <c r="K6" t="n">
+        <v>293966.72</v>
       </c>
     </row>
     <row r="7">
@@ -681,6 +701,9 @@
       <c r="J7" t="n">
         <v>49402.05</v>
       </c>
+      <c r="K7" t="n">
+        <v>49843.53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -715,6 +738,9 @@
       <c r="J8" t="n">
         <v>62680.31</v>
       </c>
+      <c r="K8" t="n">
+        <v>62351.88</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -749,6 +775,9 @@
       <c r="J9" t="n">
         <v>73984.64</v>
       </c>
+      <c r="K9" t="n">
+        <v>74174.61</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -783,6 +812,9 @@
       <c r="J10" t="n">
         <v>774.17</v>
       </c>
+      <c r="K10" t="n">
+        <v>745.79</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -817,6 +849,9 @@
       <c r="J11" t="n">
         <v>1437.06</v>
       </c>
+      <c r="K11" t="n">
+        <v>1422.54</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -851,6 +886,9 @@
       <c r="J12" t="n">
         <v>57527.5</v>
       </c>
+      <c r="K12" t="n">
+        <v>57772.62</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -884,6 +922,9 @@
       </c>
       <c r="J13" t="n">
         <v>575274.98</v>
+      </c>
+      <c r="K13" t="n">
+        <v>577726.22</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>15162.33</v>
       </c>
+      <c r="L2" t="n">
+        <v>15135.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>50525.41</v>
       </c>
+      <c r="L3" t="n">
+        <v>50445.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>21690.28</v>
       </c>
+      <c r="L4" t="n">
+        <v>21649.19</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>7843.13</v>
       </c>
+      <c r="L5" t="n">
+        <v>7851.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -668,6 +685,9 @@
       </c>
       <c r="K6" t="n">
         <v>293966.72</v>
+      </c>
+      <c r="L6" t="n">
+        <v>294383.27</v>
       </c>
     </row>
     <row r="7">
@@ -704,6 +724,9 @@
       <c r="K7" t="n">
         <v>49843.53</v>
       </c>
+      <c r="L7" t="n">
+        <v>49382.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -741,6 +764,9 @@
       <c r="K8" t="n">
         <v>62351.88</v>
       </c>
+      <c r="L8" t="n">
+        <v>62098.09</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -778,6 +804,9 @@
       <c r="K9" t="n">
         <v>74174.61</v>
       </c>
+      <c r="L9" t="n">
+        <v>74120.11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -815,6 +844,9 @@
       <c r="K10" t="n">
         <v>745.79</v>
       </c>
+      <c r="L10" t="n">
+        <v>656.1799999999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -852,6 +884,9 @@
       <c r="K11" t="n">
         <v>1422.54</v>
       </c>
+      <c r="L11" t="n">
+        <v>1932.7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -889,6 +924,9 @@
       <c r="K12" t="n">
         <v>57772.62</v>
       </c>
+      <c r="L12" t="n">
+        <v>57765.41</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -925,6 +963,9 @@
       </c>
       <c r="K13" t="n">
         <v>577726.22</v>
+      </c>
+      <c r="L13" t="n">
+        <v>577654.09</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>15135.05</v>
       </c>
+      <c r="M2" t="n">
+        <v>15385.33</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>50445.8</v>
       </c>
+      <c r="M3" t="n">
+        <v>49562.32</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>21649.19</v>
       </c>
+      <c r="M4" t="n">
+        <v>21782.13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>7851.2</v>
       </c>
+      <c r="M5" t="n">
+        <v>7825.49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -688,6 +705,9 @@
       </c>
       <c r="L6" t="n">
         <v>294383.27</v>
+      </c>
+      <c r="M6" t="n">
+        <v>293744.65</v>
       </c>
     </row>
     <row r="7">
@@ -727,6 +747,9 @@
       <c r="L7" t="n">
         <v>49382.5</v>
       </c>
+      <c r="M7" t="n">
+        <v>49453.31</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -767,6 +790,9 @@
       <c r="L8" t="n">
         <v>62098.09</v>
       </c>
+      <c r="M8" t="n">
+        <v>62776.94</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -807,6 +833,9 @@
       <c r="L9" t="n">
         <v>74120.11</v>
       </c>
+      <c r="M9" t="n">
+        <v>74105.14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -847,6 +876,9 @@
       <c r="L10" t="n">
         <v>656.1799999999999</v>
       </c>
+      <c r="M10" t="n">
+        <v>665.4299999999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -887,6 +919,9 @@
       <c r="L11" t="n">
         <v>1932.7</v>
       </c>
+      <c r="M11" t="n">
+        <v>1954.81</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -927,6 +962,9 @@
       <c r="L12" t="n">
         <v>57765.41</v>
       </c>
+      <c r="M12" t="n">
+        <v>57725.56</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -966,6 +1004,9 @@
       </c>
       <c r="L13" t="n">
         <v>577654.09</v>
+      </c>
+      <c r="M13" t="n">
+        <v>577255.55</v>
       </c>
     </row>
   </sheetData>
